--- a/Final_Code/test/final_allocation.xlsx
+++ b/Final_Code/test/final_allocation.xlsx
@@ -652,7 +652,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
